--- a/Data/dims.xlsx
+++ b/Data/dims.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\CodersLab\PAD\03-02-Pandas-Analiza\01_Merge\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\educa\Documents\GitHub\Python-CodersLab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E384160-CA6F-4B6E-9A64-EB1D6FB15174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5C50CB-E040-4507-8F84-0B2529244409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="d_province"/>
-    <sheet sheetId="2" r:id="rId2" name="d_product"/>
-    <sheet sheetId="4" r:id="rId3" name="d_product_group"/>
+    <sheet name="d_province" sheetId="1" r:id="rId1"/>
+    <sheet name="d_product" sheetId="2" r:id="rId2"/>
+    <sheet name="d_product_group" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -26,692 +26,692 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
         <b/>
-      </rPr>
-      <t xml:space="preserve">province_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>province_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">province</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SUBCARPATHIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ŁÓDŹ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">KUYAVIA-POMERANIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LOWER SILESIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WARMIA-MASURIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HOLY CROSS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WEST POMERANIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PODLASKIE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GREATER POLAND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POMERANIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LESSER POLAND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SILESIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MASOVIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LUBLIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LUBUSZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">OPOLE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>province</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUBCARPATHIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŁÓDŹ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KUYAVIA-POMERANIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOWER SILESIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WARMIA-MASURIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HOLY CROSS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WEST POMERANIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PODLASKIE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREATER POLAND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POMERANIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LESSER POLAND</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SILESIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MASOVIA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LUBLIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LUBUSZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPOLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">product_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">product</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">product_group_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pork ham cooked - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">bread - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">barley groats sausage - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dressed chickens - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Italian head cheese - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pork belly cooked - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pork  with bone (center-cut pork chop) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">plain mixed bread (wheat-rye) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Poznan wheat flour, bagged - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fresh non-dressed carp - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">30% tomato concentrate - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">smoked bacon with ribs - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">haddock fillets frozen - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">salted herring, non-dressed - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">buckwheat groats roasted whole - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">beef with bone (rump steak) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">frozen carrot and pea mix - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">beet sugar white, bagged - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">boneless beef (sirloin) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Masurian barley groats - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">white table salt bagged - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">natural chocolate plain - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pork  meat (raw bacon) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pork meat with bone (shoulder) - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hunter's sausage dried - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">whole pickled cucumbers 0.9l - per 1pc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fresh chicken egs - per 1 pc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">apple juice, boxed - per 1l</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">fresh non-dressed trout - per 1kg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Backpacker's canned pork meat - per 300 g</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_group_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pork ham cooked - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bread - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barley groats sausage - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dressed chickens - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Italian head cheese - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pork belly cooked - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pork  with bone (center-cut pork chop) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plain mixed bread (wheat-rye) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poznan wheat flour, bagged - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fresh non-dressed carp - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30% tomato concentrate - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smoked bacon with ribs - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haddock fillets frozen - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salted herring, non-dressed - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buckwheat groats roasted whole - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beef with bone (rump steak) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frozen carrot and pea mix - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beet sugar white, bagged - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boneless beef (sirloin) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Masurian barley groats - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>white table salt bagged - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>natural chocolate plain - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pork  meat (raw bacon) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pork meat with bone (shoulder) - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hunter's sausage dried - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole pickled cucumbers 0.9l - per 1pc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fresh chicken egs - per 1 pc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apple juice, boxed - per 1l</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fresh non-dressed trout - per 1kg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Backpacker's canned pork meat - per 300 g</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">product_group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">preserves</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">meat products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">other products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">oat products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preserves</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meat products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oat products</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-      </rPr>
-      <t xml:space="preserve">product_group_id</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_group_id</t>
     </r>
   </si>
 </sst>
@@ -778,7 +778,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -834,9 +834,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,26 +869,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,26 +904,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1116,13 +1082,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1138,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1146,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1154,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1162,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1170,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1178,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1186,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1194,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1202,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1210,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1218,7 +1187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1226,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1234,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1242,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1250,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1269,15 +1238,16 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1299,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1310,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1321,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1332,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1343,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1354,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1365,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>27</v>
       </c>
@@ -1376,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>30</v>
       </c>
@@ -1387,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1398,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1409,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1420,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1431,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -1442,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1453,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1464,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1475,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1486,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1497,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1508,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1519,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1530,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1541,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1552,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1563,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1574,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1585,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1596,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>18</v>
       </c>
@@ -1607,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11</v>
       </c>
@@ -1628,11 +1598,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1640,7 +1615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1648,7 +1623,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1656,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1664,7 +1639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
